--- a/files/wine.xlsx
+++ b/files/wine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\PycharmProjects\devman_frontend_lesson1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\PycharmProjects\devman_frontend_lesson1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,18 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Сорт</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Картинка</t>
-  </si>
-  <si>
     <t>Изабелла</t>
   </si>
   <si>
@@ -76,6 +64,18 @@
   </si>
   <si>
     <t>hvanchkara.png</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>wine_sort</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -362,100 +362,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>350</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>350</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>399</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>499</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
         <v>550</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/files/wine.xlsx
+++ b/files/wine.xlsx
@@ -19,28 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>Изабелла</t>
-  </si>
-  <si>
-    <t>izabella.png</t>
-  </si>
-  <si>
-    <t>Гранатовый браслет</t>
-  </si>
-  <si>
-    <t>Мускат розовый</t>
-  </si>
-  <si>
-    <t>granatovyi_braslet.png</t>
-  </si>
-  <si>
-    <t>Шардоне</t>
-  </si>
-  <si>
-    <t>shardone.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Белая леди</t>
   </si>
@@ -76,13 +55,67 @@
   </si>
   <si>
     <t>picture</t>
+  </si>
+  <si>
+    <t>Белые вина</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Коньяк классический</t>
+  </si>
+  <si>
+    <t>konyak_klassicheskyi.png</t>
+  </si>
+  <si>
+    <t>Красные вина</t>
+  </si>
+  <si>
+    <t>Черный лекарь</t>
+  </si>
+  <si>
+    <t>Качич</t>
+  </si>
+  <si>
+    <t>chernyi_lekar.png</t>
+  </si>
+  <si>
+    <t>Кокур</t>
+  </si>
+  <si>
+    <t>kokur.png</t>
+  </si>
+  <si>
+    <t>Киндзмараули</t>
+  </si>
+  <si>
+    <t>Саперави</t>
+  </si>
+  <si>
+    <t>kindzmarauli.png</t>
+  </si>
+  <si>
+    <t>Чача</t>
+  </si>
+  <si>
+    <t>chacha.png</t>
+  </si>
+  <si>
+    <t>Коньяк кизиловый</t>
+  </si>
+  <si>
+    <t>konyak_kizilovyi.png</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -95,9 +128,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,15 +164,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -347,118 +392,186 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>399</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>350</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>499</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>350</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>350</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D5" s="4">
+        <v>399</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>350</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D6" s="4">
+        <v>550</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>399</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>499</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4">
+        <v>450</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4">
+        <v>550</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
-        <v>550</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
+        <v>299</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4">
+        <v>350</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/wine.xlsx
+++ b/files/wine.xlsx
@@ -2,24 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\PycharmProjects\devman_frontend_lesson1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Wines" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+  <si>
+    <t>Белые вина</t>
+  </si>
   <si>
     <t>Белая леди</t>
   </si>
@@ -30,12 +38,36 @@
     <t>belaya_ledi.png</t>
   </si>
   <si>
+    <t>Выгодное предложение</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Коньяк классический</t>
+  </si>
+  <si>
+    <t>konyak_klassicheskyi.png</t>
+  </si>
+  <si>
     <t>Ркацители</t>
   </si>
   <si>
     <t>rkaciteli.png</t>
   </si>
   <si>
+    <t>Красные вина</t>
+  </si>
+  <si>
+    <t>Черный лекарь</t>
+  </si>
+  <si>
+    <t>Качич</t>
+  </si>
+  <si>
+    <t>chernyi_lekar.png</t>
+  </si>
+  <si>
     <t>Хванчкара</t>
   </si>
   <si>
@@ -45,103 +77,86 @@
     <t>hvanchkara.png</t>
   </si>
   <si>
+    <t>Кокур</t>
+  </si>
+  <si>
+    <t>kokur.png</t>
+  </si>
+  <si>
+    <t>Киндзмараули</t>
+  </si>
+  <si>
+    <t>Саперави</t>
+  </si>
+  <si>
+    <t>kindzmarauli.png</t>
+  </si>
+  <si>
+    <t>Чача</t>
+  </si>
+  <si>
+    <t>chacha.png</t>
+  </si>
+  <si>
+    <t>Коньяк кизиловый</t>
+  </si>
+  <si>
+    <t>konyak_kizilovyi.png</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>wine_sort</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>wine_sort</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>Белые вина</t>
-  </si>
-  <si>
-    <t>Напитки</t>
-  </si>
-  <si>
-    <t>Коньяк классический</t>
-  </si>
-  <si>
-    <t>konyak_klassicheskyi.png</t>
-  </si>
-  <si>
-    <t>Красные вина</t>
-  </si>
-  <si>
-    <t>Черный лекарь</t>
-  </si>
-  <si>
-    <t>Качич</t>
-  </si>
-  <si>
-    <t>chernyi_lekar.png</t>
-  </si>
-  <si>
-    <t>Кокур</t>
-  </si>
-  <si>
-    <t>kokur.png</t>
-  </si>
-  <si>
-    <t>Киндзмараули</t>
-  </si>
-  <si>
-    <t>Саперави</t>
-  </si>
-  <si>
-    <t>kindzmarauli.png</t>
-  </si>
-  <si>
-    <t>Чача</t>
-  </si>
-  <si>
-    <t>chacha.png</t>
-  </si>
-  <si>
-    <t>Коньяк кизиловый</t>
-  </si>
-  <si>
-    <t>konyak_kizilovyi.png</t>
-  </si>
-  <si>
-    <t>category</t>
+    <t>sale_out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,16 +179,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -192,59 +214,119 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,194 +466,209 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>399</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5">
+        <v>350</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>499</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D5" s="5">
+        <v>399</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>550</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>399</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>450</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
+        <v>550</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5">
+        <v>299</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5">
         <v>350</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>499</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>399</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>550</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>450</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4">
-        <v>550</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4">
-        <v>299</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
-        <v>350</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>